--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69088D31-C924-486A-9BB5-577B0D058165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5D998-C5FC-473D-958F-822BA9A629E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,16 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -270,9 +279,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>同CdEmp.AgType1制度別(3、4:15日薪)；
+    <t>同CdEmp.AgType1制度別(3、4：15日薪)；
 流程別對應之扣薪種類，建立於CdCode(EmpDeductType)，
-1-15日薪:12個月，2-非15日薪:13個工作月</t>
+1:15日薪-12個月
+2:非15日薪-13個工作月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +887,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1023,7 +1033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48.6">
+    <row r="10" spans="1:7" ht="64.8">
       <c r="A10" s="19">
         <v>2</v>
       </c>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5D998-C5FC-473D-958F-822BA9A629E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B3294-B1CB-44A6-B267-765168497A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -887,10 +887,10 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -901,7 +901,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
@@ -929,7 +929,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
@@ -955,20 +955,18 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -979,7 +977,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
@@ -990,7 +988,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="64.8">
+    <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1071,7 +1069,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1089,7 +1087,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1131,7 +1129,7 @@
       </c>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1200,7 +1198,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1208,7 +1206,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>48</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>46</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
